--- a/data/trans_orig/IP32-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP32-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6003167F-A695-4853-9F00-CFB39CF12932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C458FE71-C1E2-4EAC-87DA-85C001254323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{33CF37FD-D65E-4F20-8916-94968BC4EECC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E116872D-2093-4E6C-9AED-F79657B9434D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="388">
   <si>
     <t>Menores según su lugar de nacimiento en 2007 (Tasa respuesta: 99,67%)</t>
   </si>
@@ -89,1129 +89,1120 @@
     <t>3,06%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>95,88%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9289A2-20D9-4451-BDBA-99F26A1ABA37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E703907B-B56B-43B8-8BD8-F57C3670356E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2410,10 +2401,10 @@
         <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -2422,13 +2413,13 @@
         <v>23110</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2434,13 @@
         <v>132620</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>225</v>
@@ -2458,13 +2449,13 @@
         <v>154036</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>424</v>
@@ -2473,13 +2464,13 @@
         <v>286657</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,13 +2538,13 @@
         <v>33195</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -2562,13 +2553,13 @@
         <v>31487</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>96</v>
@@ -2577,13 +2568,13 @@
         <v>64681</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2589,13 @@
         <v>40979</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -2616,10 +2607,10 @@
         <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>106</v>
@@ -2628,13 +2619,13 @@
         <v>73446</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,16 +2637,16 @@
         <v>973</v>
       </c>
       <c r="D22" s="7">
-        <v>645811</v>
+        <v>645812</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H22" s="7">
         <v>922</v>
@@ -2664,13 +2655,13 @@
         <v>615234</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>1895</v>
@@ -2679,13 +2670,13 @@
         <v>1261045</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,7 +2688,7 @@
         <v>1082</v>
       </c>
       <c r="D23" s="7">
-        <v>719985</v>
+        <v>719986</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>42</v>
@@ -2741,7 +2732,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2761,7 +2752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2DDEA4-0942-4563-90AF-6C8E197AB613}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC414CF9-04E4-403C-AC49-0DD8CE7584CE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2778,7 +2769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2885,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2913,13 +2904,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2962,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,10 +2974,10 @@
         <v>641</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>42</v>
@@ -3011,10 +3002,10 @@
         <v>641</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>42</v>
@@ -3083,28 +3074,28 @@
         <v>4045</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>6136</v>
+        <v>6137</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3113,13 +3104,13 @@
         <v>10181</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3125,13 @@
         <v>3419</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -3149,13 +3140,13 @@
         <v>2323</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -3164,13 +3155,13 @@
         <v>5742</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,28 +3176,28 @@
         <v>78728</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
       </c>
       <c r="I10" s="7">
-        <v>83909</v>
+        <v>83910</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>236</v>
@@ -3215,13 +3206,13 @@
         <v>162638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,7 +3239,7 @@
         <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>42</v>
@@ -3289,13 +3280,13 @@
         <v>17080</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -3304,13 +3295,13 @@
         <v>14519</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="M12" s="7">
         <v>33</v>
@@ -3319,13 +3310,13 @@
         <v>31599</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3331,13 @@
         <v>5455</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -3355,13 +3346,13 @@
         <v>7674</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3370,13 +3361,13 @@
         <v>13129</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3382,13 @@
         <v>471911</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H14" s="7">
         <v>628</v>
@@ -3406,13 +3397,13 @@
         <v>430017</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>1311</v>
@@ -3421,13 +3412,13 @@
         <v>901928</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3486,13 @@
         <v>6611</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3510,13 +3501,13 @@
         <v>5282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3525,13 +3516,13 @@
         <v>11893</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3537,13 @@
         <v>2438</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3561,13 +3552,13 @@
         <v>1979</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3576,13 +3567,13 @@
         <v>4417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3588,13 @@
         <v>163180</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H18" s="7">
         <v>227</v>
@@ -3612,13 +3603,13 @@
         <v>159551</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M18" s="7">
         <v>460</v>
@@ -3627,13 +3618,13 @@
         <v>322732</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3692,13 @@
         <v>27735</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -3716,13 +3707,13 @@
         <v>25937</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -3731,13 +3722,13 @@
         <v>53673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3743,13 @@
         <v>11312</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -3767,13 +3758,13 @@
         <v>11976</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -3782,13 +3773,13 @@
         <v>23287</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3794,13 @@
         <v>714460</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>979</v>
@@ -3818,13 +3809,13 @@
         <v>673478</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>2008</v>
@@ -3833,13 +3824,13 @@
         <v>1387938</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,7 +3886,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3915,7 +3906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E6A414-D51E-44C6-A5C8-D82B636DE7FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD174E2-4FCA-4622-8FAD-26BA152A93CC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3932,7 +3923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4221,13 +4212,13 @@
         <v>3820</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4236,13 +4227,13 @@
         <v>2794</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -4251,13 +4242,13 @@
         <v>6614</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4263,13 @@
         <v>713</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4287,13 +4278,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -4302,13 +4293,13 @@
         <v>713</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>31</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4314,13 @@
         <v>64081</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -4338,13 +4329,13 @@
         <v>56584</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -4353,13 +4344,13 @@
         <v>120666</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4418,13 @@
         <v>7478</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -4442,13 +4433,13 @@
         <v>9134</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -4457,13 +4448,13 @@
         <v>16612</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4469,13 @@
         <v>5260</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4493,13 +4484,13 @@
         <v>7604</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -4508,13 +4499,13 @@
         <v>12864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4520,13 @@
         <v>475997</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
         <v>693</v>
@@ -4544,13 +4535,13 @@
         <v>455552</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>1371</v>
@@ -4559,13 +4550,13 @@
         <v>931549</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4624,13 @@
         <v>2473</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4648,13 +4639,13 @@
         <v>4733</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4663,13 +4654,13 @@
         <v>7205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4675,13 @@
         <v>1713</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4699,13 +4690,13 @@
         <v>4182</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -4714,13 +4705,13 @@
         <v>5895</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4726,13 @@
         <v>182596</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H18" s="7">
         <v>245</v>
@@ -4750,13 +4741,13 @@
         <v>163788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M18" s="7">
         <v>510</v>
@@ -4765,13 +4756,13 @@
         <v>346383</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>179</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4830,13 @@
         <v>13771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -4854,13 +4845,13 @@
         <v>16660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -4869,13 +4860,13 @@
         <v>30431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4881,13 @@
         <v>7686</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -4905,13 +4896,13 @@
         <v>11786</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -4920,13 +4911,13 @@
         <v>19472</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4932,13 @@
         <v>722674</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>1024</v>
@@ -4956,13 +4947,13 @@
         <v>675924</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>2061</v>
@@ -4971,13 +4962,13 @@
         <v>1398599</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,7 +5024,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5053,7 +5044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7509A6C-03CE-4BB6-A3A9-C70D00E710F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F38AE1-6E6C-46E9-A7A4-5771F8CED583}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5070,7 +5061,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5190,10 +5181,10 @@
         <v>1171</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>42</v>
@@ -5205,10 +5196,10 @@
         <v>1171</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>42</v>
@@ -5239,13 +5230,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5254,13 +5245,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5279,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5303,13 +5294,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5366,13 @@
         <v>1706</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5390,13 +5381,13 @@
         <v>1491</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -5405,13 +5396,13 @@
         <v>3197</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5417,13 @@
         <v>352</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5441,13 +5432,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -5456,13 +5447,13 @@
         <v>352</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5468,13 @@
         <v>56700</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -5492,13 +5483,13 @@
         <v>49711</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>143</v>
@@ -5507,13 +5498,13 @@
         <v>106411</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5572,13 @@
         <v>11983</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>331</v>
+        <v>191</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -5596,13 +5587,13 @@
         <v>5727</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>334</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -5611,13 +5602,13 @@
         <v>17710</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>337</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,13 +5623,13 @@
         <v>2931</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5647,13 +5638,13 @@
         <v>4797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5662,13 +5653,13 @@
         <v>7728</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5674,13 @@
         <v>477450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
         <v>626</v>
@@ -5698,13 +5689,13 @@
         <v>437417</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>1260</v>
@@ -5713,13 +5704,13 @@
         <v>914868</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,10 +5778,10 @@
         <v>2168</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>352</v>
@@ -5802,13 +5793,13 @@
         <v>3153</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>28</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>353</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5820,10 +5811,10 @@
         <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,10 +5832,10 @@
         <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5859,7 +5850,7 @@
         <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5868,13 +5859,13 @@
         <v>5221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>16</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5880,13 @@
         <v>170028</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H18" s="7">
         <v>217</v>
@@ -5904,13 +5895,13 @@
         <v>145383</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M18" s="7">
         <v>446</v>
@@ -5919,13 +5910,13 @@
         <v>315410</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5984,13 @@
         <v>15856</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>367</v>
+        <v>165</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -6008,13 +5999,13 @@
         <v>11543</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -6023,13 +6014,13 @@
         <v>27399</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6035,13 @@
         <v>5670</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>375</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -6059,13 +6050,13 @@
         <v>7631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -6074,13 +6065,13 @@
         <v>13301</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>382</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6101,13 @@
         <v>632511</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>388</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>1849</v>
@@ -6125,13 +6116,13 @@
         <v>1336688</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>389</v>
+        <v>303</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>390</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,7 +6178,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
